--- a/backend/output_timetables/sem1_CSE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_CSE_post_mid_timetable.xlsx
@@ -11,6 +11,11 @@
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Verification_A" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Verification_B" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="LTPSC_Compliance" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Executive_Summary" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Course_Summary" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Distribution_Logic" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="All_Courses_Overview" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,17 +486,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>MA162</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>DS161</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -508,22 +513,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>EC161</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>MA161</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -572,27 +577,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CS161 (Lab)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>DS161</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>MA162</t>
         </is>
       </c>
     </row>
@@ -604,14 +609,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CS161 (Lab)</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Free</t>
@@ -624,7 +629,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -636,27 +641,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>HS161</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>EC161</t>
         </is>
       </c>
     </row>
@@ -683,12 +688,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -756,12 +761,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -771,7 +776,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA162</t>
         </is>
       </c>
     </row>
@@ -788,22 +793,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>MA161</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>DS161</t>
         </is>
       </c>
     </row>
@@ -847,27 +852,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>CS161</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>CS161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -884,7 +889,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -899,7 +904,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -911,27 +916,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -963,7 +968,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1051,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1083,17 +1088,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**CS161**</t>
+          <t>**MA162**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>introduction to cyber security</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>Chinmayananda</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1108,7 +1113,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1130,22 +1135,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**HS161**</t>
+          <t>**CS161**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>English Language</t>
+          <t>introduction to cyber security</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rajesh N S</t>
+          <t>Girish Revadigar</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1155,7 +1160,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1165,7 +1170,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1177,22 +1182,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**MA162**</t>
+          <t>**MA161**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Chinmayananda</t>
+          <t>Ramesh Athe</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1212,7 +1217,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1224,17 +1229,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**MA161**</t>
+          <t>**EC161**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>Prakash Pawar</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1249,7 +1254,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1271,22 +1276,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**EC161**</t>
+          <t>**DS161**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Introduction to DATA science and artificial intelligence</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Prakash Pawar</t>
+          <t>Girish Revadigar</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1296,7 +1301,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1306,7 +1311,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1318,22 +1323,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>**DS161**</t>
+          <t>**HS161**</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Introduction to DATA science and artificial intelligence</t>
+          <t>English Language</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>Rajesh N S</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1353,7 +1358,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1385,7 +1390,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lectures: 13</t>
+          <t>Lectures: 14</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1488,7 +1493,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1572,17 +1577,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**MA162**</t>
+          <t>**DS161**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Introduction to DATA science and artificial intelligence</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Chinmayananda</t>
+          <t>Girish Revadigar</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1619,12 +1624,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**DS161**</t>
+          <t>**CS161**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Introduction to DATA science and artificial intelligence</t>
+          <t>introduction to cyber security</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1644,7 +1649,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1666,17 +1671,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**MA161**</t>
+          <t>**EC161**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>Prakash Pawar</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1691,7 +1696,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1713,17 +1718,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**EC161**</t>
+          <t>**MA161**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Prakash Pawar</t>
+          <t>Ramesh Athe</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1738,7 +1743,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1760,17 +1765,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>**CS161**</t>
+          <t>**MA162**</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>introduction to cyber security</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>Chinmayananda</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1785,7 +1790,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1827,7 +1832,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lectures: 13</t>
+          <t>Lectures: 14</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1848,6 +1853,3883 @@
       <c r="I9" t="inlineStr">
         <is>
           <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Required LTPSC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Required (L/T/P)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Section A (L/T/P)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Section B (L/T/P)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Labs Status</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Compliance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>introduction to cyber security</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[OK] FULLY COMPLIANT</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Meets requirements</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Introduction to DATA science and artificial intelligence</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[OK] FULLY COMPLIANT</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Meets requirements</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3/0/2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>English Language</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3/0/2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[OK] FULLY COMPLIANT</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Meets requirements</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Branch: CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Generation Date</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-12-13 16:20</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Timetable generation timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Course Statistics</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Total Courses</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Core: 5, Elective: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LTPSC Compliance</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Compliance Rate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>42.9%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3/7 courses fully compliant</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Room Utilization</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rooms Used</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0/35</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Utilization: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Schedule Density</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Time Slot Utilization</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>54.3%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A: 54.3%, B: 54.3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Quality Assessment</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Overall Quality</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[WARN] NEEDS REVIEW</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Score: 57.4/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Practicals/Week</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Half Semester</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Inclusion Reasoning</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Sunil P V, Sunil C K, Animesh Roy</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>English Language</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Computational musicology for hindustani music</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Chandrika Kamat</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Chinmayananda</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>introduction to cyber security</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Ramesh Athe</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Introduction to DS and AI</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Scheduled In</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Logic Applied</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>In Pre-Mid</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>In Post-Mid</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Introduction to data science and artifical inteligance</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='Yes' -&gt; Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='Yes' -&gt; Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>English Language</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>introduction to cyber security</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='Yes' -&gt; Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Computational musicology for hindustani music</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='Yes' -&gt; Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Introduction to DS and AI</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='Yes' -&gt; Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='Yes' -&gt; Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Introduction to DATA science and artificial intelligence</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='Yes' -&gt; Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Half Semester</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Sunil P V, Sunil C K, Animesh Roy</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>English Language</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Computational musicology for hindustani music</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Chandrika Kamat</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Ramesh Athe</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Introduction to data science and artifical inteligance</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Ravishankar, Vivekraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Chinmayananda</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Sunil P V, Sunil C K, Animesh Roy</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>English Language</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Computational musicology for hindustani music</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Chandrika Kamat</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Chinmayananda</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>introduction to cyber security</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Ramesh Athe</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Introduction to DS and AI</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Girish Revadigar</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_CSE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_CSE_post_mid_timetable.xlsx
@@ -4752,7 +4752,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C004, C303</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -4786,7 +4786,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004, L406</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004, L407</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004, L408</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -6510,7 +6510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M171"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7542,22 +7542,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I18" t="b">
@@ -7575,7 +7575,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -7605,22 +7605,22 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I19" t="b">
@@ -7638,7 +7638,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -7668,22 +7668,22 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -7731,7 +7731,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -7794,7 +7794,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -7857,7 +7857,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -7920,7 +7920,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -7983,7 +7983,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -8046,7 +8046,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -8109,22 +8109,22 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -8142,7 +8142,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -8172,7 +8172,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -8235,7 +8235,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -8265,7 +8265,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>DS161</t>
         </is>
       </c>
     </row>
@@ -8285,25 +8285,29 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I30" t="b">
         <v>0</v>
       </c>
@@ -8312,15 +8316,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>PH151</t>
         </is>
       </c>
     </row>
@@ -8340,25 +8348,29 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I31" t="b">
         <v>0</v>
       </c>
@@ -8367,15 +8379,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>DS151</t>
         </is>
       </c>
     </row>
@@ -8395,25 +8411,29 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I32" t="b">
         <v>0</v>
       </c>
@@ -8422,15 +8442,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>CS101</t>
         </is>
       </c>
     </row>
@@ -8450,25 +8474,29 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I33" t="b">
         <v>0</v>
       </c>
@@ -8477,15 +8505,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>CS151</t>
         </is>
       </c>
     </row>
@@ -8505,25 +8537,29 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I34" t="b">
         <v>0</v>
       </c>
@@ -8532,15 +8568,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>HS157</t>
         </is>
       </c>
     </row>
@@ -8560,25 +8600,29 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I35" t="b">
         <v>0</v>
       </c>
@@ -8587,15 +8631,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS102</t>
         </is>
       </c>
     </row>
@@ -8620,22 +8668,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -8653,12 +8701,12 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS103</t>
         </is>
       </c>
     </row>
@@ -8683,22 +8731,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -8716,12 +8764,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>DE101</t>
         </is>
       </c>
     </row>
@@ -8746,22 +8794,22 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -8779,12 +8827,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS156</t>
         </is>
       </c>
     </row>
@@ -8809,7 +8857,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -8847,7 +8895,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS152</t>
         </is>
       </c>
     </row>
@@ -8872,7 +8920,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -8910,7 +8958,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -8935,22 +8983,22 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I41" t="b">
@@ -8961,19 +9009,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -8993,27 +9037,27 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I42" t="b">
@@ -9024,19 +9068,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -9056,27 +9096,27 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I43" t="b">
@@ -9087,19 +9127,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -9119,12 +9155,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -9162,7 +9198,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS157</t>
         </is>
       </c>
     </row>
@@ -9182,27 +9218,27 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -9220,12 +9256,12 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS156</t>
         </is>
       </c>
     </row>
@@ -9245,12 +9281,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -9288,7 +9324,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS152</t>
         </is>
       </c>
     </row>
@@ -9308,25 +9344,29 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I47" t="b">
         <v>0</v>
       </c>
@@ -9335,15 +9375,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>PH151</t>
         </is>
       </c>
     </row>
@@ -9363,25 +9407,29 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I48" t="b">
         <v>0</v>
       </c>
@@ -9390,15 +9438,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>DS151</t>
         </is>
       </c>
     </row>
@@ -9418,25 +9470,29 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I49" t="b">
         <v>0</v>
       </c>
@@ -9445,15 +9501,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>CS101</t>
         </is>
       </c>
     </row>
@@ -9473,27 +9533,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -9504,15 +9564,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>HS102</t>
         </is>
       </c>
     </row>
@@ -9532,27 +9596,27 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I51" t="b">
@@ -9563,15 +9627,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>HS103</t>
         </is>
       </c>
     </row>
@@ -9591,12 +9659,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -9634,7 +9702,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>DE101</t>
         </is>
       </c>
     </row>
@@ -9654,12 +9722,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -9697,7 +9765,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>CS151</t>
         </is>
       </c>
     </row>
@@ -9717,12 +9785,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -9760,7 +9828,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -9775,7 +9843,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -9785,22 +9853,22 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I55" t="b">
@@ -9808,22 +9876,18 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -9838,7 +9902,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -9848,7 +9912,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -9871,14 +9935,10 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>C004</t>
@@ -9886,7 +9946,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -9901,7 +9961,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -9911,7 +9971,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -9934,14 +9994,10 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>C004</t>
@@ -9949,7 +10005,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -9964,7 +10020,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -9974,7 +10030,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -9997,14 +10053,10 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>C004</t>
@@ -10012,7 +10064,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS161</t>
         </is>
       </c>
     </row>
@@ -10027,12 +10079,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -10060,14 +10112,10 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>C004</t>
@@ -10075,7 +10123,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -10090,17 +10138,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -10123,14 +10171,10 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>C004</t>
@@ -10138,7 +10182,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS161</t>
         </is>
       </c>
     </row>
@@ -10153,32 +10197,32 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I61" t="b">
@@ -10186,22 +10230,18 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>MA162</t>
         </is>
       </c>
     </row>
@@ -10216,32 +10256,32 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I62" t="b">
@@ -10249,22 +10289,18 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>EC161</t>
         </is>
       </c>
     </row>
@@ -10279,7 +10315,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -10289,45 +10325,37 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="b">
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>MA162</t>
         </is>
       </c>
     </row>
@@ -10342,7 +10370,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -10352,7 +10380,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -10375,14 +10403,10 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>C004</t>
@@ -10390,7 +10414,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>EC161</t>
         </is>
       </c>
     </row>
@@ -10405,7 +10429,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -10415,7 +10439,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -10434,18 +10458,14 @@
         </is>
       </c>
       <c r="I65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>C004</t>
@@ -10453,7 +10473,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -10468,7 +10488,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -10478,22 +10498,22 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I66" t="b">
@@ -10501,22 +10521,18 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -10531,12 +10547,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -10546,40 +10562,32 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="b">
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>MA161</t>
         </is>
       </c>
     </row>
@@ -10594,32 +10602,32 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I68" t="b">
@@ -10627,22 +10635,18 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>DS161</t>
         </is>
       </c>
     </row>
@@ -10657,12 +10661,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -10672,17 +10676,17 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I69" t="b">
@@ -10690,22 +10694,18 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>MA161</t>
         </is>
       </c>
     </row>
@@ -10720,32 +10720,32 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I70" t="b">
@@ -10753,22 +10753,18 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DS161</t>
         </is>
       </c>
     </row>
@@ -10783,12 +10779,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -10831,7 +10827,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>PH151</t>
         </is>
       </c>
     </row>
@@ -10846,12 +10842,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -10894,7 +10890,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>DS151</t>
         </is>
       </c>
     </row>
@@ -10909,12 +10905,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -10957,7 +10953,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>CS101</t>
         </is>
       </c>
     </row>
@@ -10972,30 +10968,34 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I74" t="b">
         <v>0</v>
       </c>
@@ -11004,15 +11004,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>CS151</t>
         </is>
       </c>
     </row>
@@ -11027,32 +11031,32 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I75" t="b">
@@ -11063,15 +11067,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS157</t>
         </is>
       </c>
     </row>
@@ -11086,17 +11094,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -11134,7 +11142,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS102</t>
         </is>
       </c>
     </row>
@@ -11149,17 +11157,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -11197,7 +11205,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS103</t>
         </is>
       </c>
     </row>
@@ -11212,17 +11220,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -11260,7 +11268,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>DE101</t>
         </is>
       </c>
     </row>
@@ -11275,17 +11283,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -11323,7 +11331,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS156</t>
         </is>
       </c>
     </row>
@@ -11338,17 +11346,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -11386,7 +11394,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS152</t>
         </is>
       </c>
     </row>
@@ -11401,17 +11409,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -11449,7 +11457,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -11464,34 +11472,30 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="b">
         <v>0</v>
       </c>
@@ -11500,19 +11504,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>DS161</t>
         </is>
       </c>
     </row>
@@ -11527,17 +11527,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -11575,7 +11575,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>PH151</t>
         </is>
       </c>
     </row>
@@ -11590,17 +11590,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -11638,7 +11638,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>DS151</t>
         </is>
       </c>
     </row>
@@ -11653,17 +11653,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -11701,7 +11701,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>CS101</t>
         </is>
       </c>
     </row>
@@ -11716,17 +11716,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -11764,7 +11764,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>CS151</t>
         </is>
       </c>
     </row>
@@ -11784,27 +11784,27 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I87" t="b">
@@ -11812,18 +11812,22 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS157</t>
         </is>
       </c>
     </row>
@@ -11843,12 +11847,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -11871,10 +11875,14 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>C004</t>
@@ -11882,7 +11890,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>HS102</t>
         </is>
       </c>
     </row>
@@ -11902,12 +11910,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -11930,10 +11938,14 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>C004</t>
@@ -11941,7 +11953,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>HS103</t>
         </is>
       </c>
     </row>
@@ -11961,12 +11973,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -11989,10 +12001,14 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>C004</t>
@@ -12000,7 +12016,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>DE101</t>
         </is>
       </c>
     </row>
@@ -12020,7 +12036,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -12048,10 +12064,14 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>C004</t>
@@ -12059,7 +12079,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS156</t>
         </is>
       </c>
     </row>
@@ -12079,12 +12099,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -12107,10 +12127,14 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>C004</t>
@@ -12118,7 +12142,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>HS152</t>
         </is>
       </c>
     </row>
@@ -12138,27 +12162,27 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I93" t="b">
@@ -12166,18 +12190,22 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -12197,27 +12225,27 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I94" t="b">
@@ -12225,18 +12253,18 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -12256,42 +12284,46 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -12311,27 +12343,27 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I96" t="b">
@@ -12339,18 +12371,18 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -12370,12 +12402,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -12394,14 +12426,18 @@
         </is>
       </c>
       <c r="I97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>C004</t>
@@ -12409,7 +12445,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS157</t>
         </is>
       </c>
     </row>
@@ -12429,27 +12465,27 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I98" t="b">
@@ -12457,18 +12493,22 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS156</t>
         </is>
       </c>
     </row>
@@ -12488,42 +12528,50 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I99" t="b">
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>HS152</t>
         </is>
       </c>
     </row>
@@ -12543,27 +12591,27 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I100" t="b">
@@ -12571,18 +12619,22 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>PH151</t>
         </is>
       </c>
     </row>
@@ -12607,22 +12659,22 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I101" t="b">
@@ -12630,18 +12682,22 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>DS151</t>
         </is>
       </c>
     </row>
@@ -12666,22 +12722,22 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I102" t="b">
@@ -12689,18 +12745,22 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>CS101</t>
         </is>
       </c>
     </row>
@@ -12720,12 +12780,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -12763,7 +12823,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS102</t>
         </is>
       </c>
     </row>
@@ -12783,12 +12843,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -12826,7 +12886,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS103</t>
         </is>
       </c>
     </row>
@@ -12846,12 +12906,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -12889,7 +12949,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>DE101</t>
         </is>
       </c>
     </row>
@@ -12909,12 +12969,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -12972,12 +13032,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -13014,3962 +13074,6 @@
         </is>
       </c>
       <c r="M107" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>1</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I108" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>1</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I109" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>1</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I110" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>1</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I111" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>1</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I112" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>1</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I113" t="b">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>1</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="b">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>1</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>1</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>1</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I117" t="b">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>1</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I118" t="b">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>1</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I119" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>1</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>1</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>1</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I122" t="b">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>1</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>1</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>1</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>1</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I126" t="b">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>1</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I127" t="b">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>1</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I128" t="b">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>1</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I129" t="b">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>1</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I130" t="b">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>1</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I131" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>1</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I132" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>1</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr"/>
-      <c r="I133" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>1</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I134" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>1</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I135" t="b">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>HS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>1</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I136" t="b">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>HS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>1</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I137" t="b">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>1</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I138" t="b">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>1</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I139" t="b">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>1</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I140" t="b">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>1</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I141" t="b">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>1</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I142" t="b">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>1</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I143" t="b">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>1</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I144" t="b">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>1</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I145" t="b">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>1</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I146" t="b">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>1</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I147" t="b">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>1</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I148" t="b">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>1</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I149" t="b">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>1</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I150" t="b">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>1</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I151" t="b">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>1</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I152" t="b">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>1</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I153" t="b">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>1</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I154" t="b">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>1</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I155" t="b">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>1</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I156" t="b">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M156" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>1</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I157" t="b">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>1</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I158" t="b">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>1</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I159" t="b">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>1</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I160" t="b">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>1</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I161" t="b">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M161" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>1</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I162" t="b">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>1</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I163" t="b">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M163" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>1</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I164" t="b">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M164" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>1</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I165" t="b">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M165" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>1</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I166" t="b">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M166" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>1</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I167" t="b">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M167" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>1</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I168" t="b">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M168" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>1</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I169" t="b">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M169" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>1</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I170" t="b">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M170" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>1</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I171" t="b">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M171" t="inlineStr">
         <is>
           <t>CS161</t>
         </is>

--- a/backend/output_timetables/sem1_CSE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_CSE_post_mid_timetable.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,182 +482,182 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MA161 [C001]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA161 [C003]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS161 [L406]</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HS161 [C004]</t>
+          <t>CS161 [C102]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA162 [C001]</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DS161 [C002]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DS161 [C002]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>CS161 [C102]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HS161 [C104]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>DS161 [C001]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MA162 [L405]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [C004]</t>
+          <t>CS161 (Lab) [L405]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>MA162 [C002]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>EC161 [C004]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HS161 [C004]</t>
+          <t>CS161 (Lab) [L405]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC161 [C104]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -667,37 +667,101 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HS161 [C104]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>EC161 [C001]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L206]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L105]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L206]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -3190,11 +3254,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>HS157, HS156, HS152, CS151</t>
+          <t>HS157, HS156, CS151</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3223,7 +3287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3290,7 +3354,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -3325,7 +3389,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -3346,7 +3410,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3360,7 +3424,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -3368,41 +3432,6 @@
         </is>
       </c>
       <c r="G4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3486,16 +3515,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="E2" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>11.25</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -3516,16 +3545,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="E3" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>15</v>
+        <v>11.25</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -3584,16 +3613,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -3652,16 +3681,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -3720,16 +3749,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -3754,16 +3783,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -3890,16 +3919,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -4026,16 +4055,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -4448,16 +4477,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -4550,16 +4579,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>7.5</v>
+        <v>6.25</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -4584,16 +4613,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -4618,16 +4647,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -4718,7 +4747,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C101, C102, C205</t>
         </is>
       </c>
     </row>
@@ -4735,7 +4764,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003, C101, C104, C204, C302</t>
         </is>
       </c>
     </row>
@@ -4747,12 +4776,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101, C102, C104, C202, C203</t>
         </is>
       </c>
     </row>
@@ -4764,12 +4793,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C003, C004, C202, C302</t>
         </is>
       </c>
     </row>
@@ -4781,12 +4810,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C004, C203</t>
         </is>
       </c>
     </row>
@@ -4798,12 +4827,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C004, C101, C102, C104</t>
         </is>
       </c>
     </row>
@@ -4815,12 +4844,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003, C104, C202, C203</t>
         </is>
       </c>
     </row>
@@ -4832,12 +4861,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C202, C203, C204</t>
         </is>
       </c>
     </row>
@@ -4849,12 +4878,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102, C204, C205</t>
         </is>
       </c>
     </row>
@@ -4866,12 +4895,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C004, C104, C205, C302</t>
         </is>
       </c>
     </row>
@@ -4888,7 +4917,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C004, L406, L407</t>
+          <t>C001, C003, C102, C104, C302</t>
         </is>
       </c>
     </row>
@@ -4903,7 +4932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4946,182 +4975,182 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MA161 [C001]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA161 [C003]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS161 [L407]</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HS161 [C004]</t>
+          <t>CS161 [C104]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA162 [C001]</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DS161 [C002]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DS161 [C002]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>CS161 [C104]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HS161 [C202]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>DS161 [C002]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MA162 [L405]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [C004]</t>
+          <t>CS161 (Lab) [L402]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>MA162 [C002]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>EC161 [C004]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HS161 [C004]</t>
+          <t>CS161 (Lab) [L402]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC161 [C104]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -5131,37 +5160,101 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HS161 [C202]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>EC161 [C001]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L206]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L105]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L206]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -5323,7 +5416,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C004, L406</t>
+          <t>L403, C102</t>
         </is>
       </c>
     </row>
@@ -5370,7 +5463,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -5417,7 +5510,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>L405, C001</t>
+          <t>C002, C003</t>
         </is>
       </c>
     </row>
@@ -5464,7 +5557,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C104, L105, C004</t>
+          <t>C004, L105, C001</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5604,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C003, C001</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -5558,7 +5651,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001, C004</t>
         </is>
       </c>
     </row>
@@ -5765,7 +5858,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>L407, C004</t>
+          <t>C104, L406</t>
         </is>
       </c>
     </row>
@@ -5812,7 +5905,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -5859,7 +5952,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>L405, C001</t>
+          <t>C002, C003</t>
         </is>
       </c>
     </row>
@@ -5906,7 +5999,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C104, L105, C004</t>
+          <t>C004, L206, C001</t>
         </is>
       </c>
     </row>
@@ -5953,7 +6046,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C003, C001</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -6000,7 +6093,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C002, C004</t>
         </is>
       </c>
     </row>
@@ -6062,7 +6155,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6134,7 +6227,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -6146,12 +6239,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MA161, MA162</t>
+          <t>DS161, EC161</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
@@ -6177,7 +6270,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -6185,16 +6278,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA162, DS161</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
@@ -6232,7 +6325,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -6263,7 +6356,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -6271,23 +6364,23 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>HS161, CS161, EC161...</t>
+          <t>DS161, EC161, MA161</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -6310,7 +6403,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -6318,7 +6411,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -6330,50 +6423,50 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>2</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>A, B</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>CS161, HS161</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -6383,12 +6476,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6396,7 +6489,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -6404,7 +6497,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -6416,26 +6509,26 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -6447,55 +6540,141 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.2</t>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -6510,7 +6689,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6584,6 +6763,11 @@
           <t>course</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -6616,12 +6800,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I2" t="b">
@@ -6635,12 +6819,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
           <t>CS161</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6670,17 +6859,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I3" t="b">
@@ -6694,12 +6883,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
           <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -6729,17 +6923,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I4" t="b">
@@ -6753,12 +6947,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
           <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -6788,17 +6987,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -6812,12 +7011,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
           <t>HS161</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6847,17 +7051,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -6871,12 +7075,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
           <t>CS161</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6906,17 +7115,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -6930,12 +7139,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
           <t>HS161</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6965,17 +7179,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I8" t="b">
@@ -6989,12 +7203,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
           <t>MA162</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7024,19 +7243,15 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="b">
         <v>0</v>
       </c>
@@ -7048,12 +7263,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
           <t>EC161</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7088,10 +7308,14 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I10" t="b">
         <v>0</v>
       </c>
@@ -7103,12 +7327,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
           <t>MA162</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7170,6 +7399,11 @@
           <t>EC161</t>
         </is>
       </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -7197,21 +7431,21 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -7221,12 +7455,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
           <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -7280,12 +7519,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
           <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -7315,15 +7559,19 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I14" t="b">
         <v>0</v>
       </c>
@@ -7335,12 +7583,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
           <t>MA161</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7370,17 +7623,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I15" t="b">
@@ -7394,12 +7647,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
           <t>DS161</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7429,17 +7687,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I16" t="b">
@@ -7453,12 +7711,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
           <t>MA161</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7496,11 +7759,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="b">
         <v>0</v>
       </c>
@@ -7512,12 +7771,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
           <t>DS161</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7547,17 +7811,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I18" t="b">
@@ -7575,12 +7839,17 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
           <t>PH151</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7610,17 +7879,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I19" t="b">
@@ -7638,12 +7907,17 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
           <t>DS151</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7673,17 +7947,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -7701,12 +7975,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
           <t>CS101</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7736,17 +8015,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -7764,12 +8043,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
           <t>CS151</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7799,17 +8083,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I22" t="b">
@@ -7827,12 +8111,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
           <t>HS157</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7862,17 +8151,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -7890,12 +8179,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
           <t>HS102</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7925,17 +8219,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -7953,12 +8247,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
           <t>HS103</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7988,17 +8287,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -8016,12 +8315,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
           <t>DE101</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8051,17 +8355,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -8079,12 +8383,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
           <t>HS156</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8150,6 +8459,11 @@
           <t>HS152</t>
         </is>
       </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -8177,17 +8491,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I28" t="b">
@@ -8205,12 +8519,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
           <t>CS161</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8268,6 +8587,7 @@
           <t>DS161</t>
         </is>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -8295,19 +8615,15 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="b">
         <v>0</v>
       </c>
@@ -8323,12 +8639,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
           <t>PH151</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8358,17 +8679,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -8386,12 +8707,17 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
           <t>DS151</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8421,17 +8747,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -8449,12 +8775,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
           <t>CS101</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8484,17 +8815,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -8512,12 +8843,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
           <t>CS151</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8547,17 +8883,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -8575,12 +8911,17 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
           <t>HS157</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8610,17 +8951,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -8638,12 +8979,17 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
           <t>HS102</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8673,17 +9019,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -8701,12 +9047,17 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
           <t>HS103</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8736,17 +9087,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -8764,12 +9115,17 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
           <t>DE101</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8799,17 +9155,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -8827,12 +9183,17 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
           <t>HS156</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8862,17 +9223,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -8890,12 +9251,17 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
           <t>HS152</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -8925,17 +9291,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I40" t="b">
@@ -8953,12 +9319,17 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
           <t>CS161</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9020,6 +9391,7 @@
           <t>EC161 (Lab)</t>
         </is>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -9037,27 +9409,27 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I42" t="b">
@@ -9068,15 +9440,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9096,7 +9477,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -9106,17 +9487,17 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I43" t="b">
@@ -9127,15 +9508,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9165,17 +9555,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -9193,12 +9583,17 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9228,17 +9623,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -9256,12 +9651,17 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9291,17 +9691,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -9319,12 +9719,17 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9354,17 +9759,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -9382,12 +9787,17 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9417,17 +9827,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I48" t="b">
@@ -9445,12 +9855,17 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9480,17 +9895,17 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -9508,12 +9923,17 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9543,17 +9963,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -9571,12 +9991,17 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9606,17 +10031,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I51" t="b">
@@ -9634,12 +10059,17 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9669,17 +10099,17 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I52" t="b">
@@ -9697,12 +10127,17 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -9722,27 +10157,27 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I53" t="b">
@@ -9753,21 +10188,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>CS151</t>
-        </is>
-      </c>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -9785,7 +10217,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -9795,17 +10227,17 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I54" t="b">
@@ -9816,21 +10248,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>CS161</t>
-        </is>
-      </c>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -9863,12 +10292,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I55" t="b">
@@ -9882,12 +10311,17 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
           <t>CS161</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -9917,17 +10351,17 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I56" t="b">
@@ -9941,12 +10375,17 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
           <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -9976,17 +10415,17 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I57" t="b">
@@ -10000,12 +10439,17 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
           <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -10035,17 +10479,17 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I58" t="b">
@@ -10059,12 +10503,17 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
           <t>HS161</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10094,17 +10543,17 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I59" t="b">
@@ -10118,12 +10567,17 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
           <t>CS161</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10153,17 +10607,17 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I60" t="b">
@@ -10177,12 +10631,17 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
           <t>HS161</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10212,17 +10671,17 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I61" t="b">
@@ -10236,12 +10695,17 @@
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
           <t>MA162</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10271,19 +10735,15 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="b">
         <v>0</v>
       </c>
@@ -10295,12 +10755,17 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
           <t>EC161</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10335,10 +10800,14 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I63" t="b">
         <v>0</v>
       </c>
@@ -10350,12 +10819,17 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
           <t>MA162</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10417,6 +10891,11 @@
           <t>EC161</t>
         </is>
       </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -10444,21 +10923,21 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -10468,12 +10947,17 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
           <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -10527,12 +11011,17 @@
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
           <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -10562,15 +11051,19 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I67" t="b">
         <v>0</v>
       </c>
@@ -10582,12 +11075,17 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
           <t>MA161</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10617,17 +11115,17 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I68" t="b">
@@ -10641,12 +11139,17 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
           <t>DS161</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10676,17 +11179,17 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I69" t="b">
@@ -10700,12 +11203,17 @@
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
           <t>MA161</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10767,6 +11275,11 @@
           <t>DS161</t>
         </is>
       </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -10794,17 +11307,17 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I71" t="b">
@@ -10822,12 +11335,17 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
           <t>PH151</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10857,17 +11375,17 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I72" t="b">
@@ -10885,12 +11403,17 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
           <t>DS151</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -10956,6 +11479,11 @@
           <t>CS101</t>
         </is>
       </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -10983,17 +11511,17 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I74" t="b">
@@ -11011,12 +11539,17 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
           <t>CS151</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11046,17 +11579,17 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I75" t="b">
@@ -11074,12 +11607,17 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
           <t>HS157</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11109,17 +11647,17 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I76" t="b">
@@ -11137,12 +11675,17 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
           <t>HS102</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11172,17 +11715,17 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I77" t="b">
@@ -11200,12 +11743,17 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
           <t>HS103</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11235,17 +11783,17 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I78" t="b">
@@ -11263,12 +11811,17 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
           <t>DE101</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11298,17 +11851,17 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I79" t="b">
@@ -11326,12 +11879,17 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
           <t>HS156</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11361,17 +11919,17 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I80" t="b">
@@ -11389,12 +11947,17 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
           <t>HS152</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11424,19 +11987,15 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="b">
         <v>0</v>
       </c>
@@ -11452,12 +12011,17 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
           <t>CS161</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11495,7 +12059,11 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I82" t="b">
         <v>0</v>
       </c>
@@ -11507,7 +12075,7 @@
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -11515,6 +12083,7 @@
           <t>DS161</t>
         </is>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -11542,17 +12111,17 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I83" t="b">
@@ -11570,12 +12139,17 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
           <t>PH151</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11641,6 +12215,11 @@
           <t>DS151</t>
         </is>
       </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -11668,17 +12247,17 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I85" t="b">
@@ -11696,12 +12275,17 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
           <t>CS101</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11731,17 +12315,17 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I86" t="b">
@@ -11759,12 +12343,17 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
           <t>CS151</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11794,19 +12383,15 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="b">
         <v>0</v>
       </c>
@@ -11822,12 +12407,17 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
           <t>HS157</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11857,17 +12447,17 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I88" t="b">
@@ -11885,12 +12475,17 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
           <t>HS102</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11920,17 +12515,17 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I89" t="b">
@@ -11948,12 +12543,17 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
           <t>HS103</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -11983,17 +12583,17 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I90" t="b">
@@ -12011,12 +12611,17 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
           <t>DE101</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -12046,17 +12651,17 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I91" t="b">
@@ -12074,12 +12679,17 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
           <t>HS156</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -12109,17 +12719,17 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I92" t="b">
@@ -12137,12 +12747,17 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
           <t>HS152</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -12172,17 +12787,17 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I93" t="b">
@@ -12200,12 +12815,17 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
           <t>CS161</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -12259,7 +12879,7 @@
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -12267,6 +12887,7 @@
           <t>EC161 (Lab)</t>
         </is>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -12284,31 +12905,31 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -12318,14 +12939,15 @@
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -12343,7 +12965,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -12353,17 +12975,17 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I96" t="b">
@@ -12374,15 +12996,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -12412,17 +13043,17 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I97" t="b">
@@ -12440,12 +13071,17 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -12508,7 +13144,12 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -12538,17 +13179,17 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I99" t="b">
@@ -12566,12 +13207,17 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -12601,17 +13247,17 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I100" t="b">
@@ -12629,12 +13275,17 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -12664,17 +13315,17 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I101" t="b">
@@ -12692,12 +13343,17 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -12727,17 +13383,17 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I102" t="b">
@@ -12755,12 +13411,17 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -12790,17 +13451,17 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I103" t="b">
@@ -12818,12 +13479,17 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -12853,17 +13519,17 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I104" t="b">
@@ -12881,12 +13547,17 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -12916,17 +13587,17 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I105" t="b">
@@ -12944,12 +13615,17 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -12979,19 +13655,15 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="b">
         <v>0</v>
       </c>
@@ -13007,12 +13679,17 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -13032,7 +13709,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -13042,17 +13719,17 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I107" t="b">
@@ -13063,21 +13740,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>CS161</t>
-        </is>
-      </c>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13628,7 +14302,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-18 11:33</t>
+          <t>2026-01-19 23:36</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -13692,12 +14366,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9/36</t>
+          <t>11/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 25.0%</t>
+          <t>Utilization: 30.6%</t>
         </is>
       </c>
     </row>
@@ -13714,12 +14388,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>54.3%</t>
+          <t>42.2%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 54.3%, B: 54.3%</t>
+          <t>A: 42.2%, B: 42.2%</t>
         </is>
       </c>
     </row>
@@ -13741,7 +14415,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 57.4/100</t>
+          <t>Score: 53.8/100</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_CSE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_CSE_post_mid_timetable.xlsx
@@ -615,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L405]</t>
+          <t>CS161 (Lab) [L403]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L405]</t>
+          <t>CS161 (Lab) [L403]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -3783,16 +3783,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -4055,16 +4055,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>12.5</v>
+        <v>6.25</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -4477,16 +4477,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -4511,16 +4511,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -4579,16 +4579,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -4681,16 +4681,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C001, C101, C102, C205</t>
+          <t>C104, C203, C302</t>
         </is>
       </c>
     </row>
@@ -4764,7 +4764,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C003, C101, C104, C204, C302</t>
+          <t>C004, C302</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C101, C102, C104, C202, C203</t>
+          <t>C003, C101, C202</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C001, C003, C004, C202, C302</t>
+          <t>C102, C203, C205</t>
         </is>
       </c>
     </row>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C002, C004, C203</t>
+          <t>C002, C101, C104</t>
         </is>
       </c>
     </row>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004, C101, C102, C104</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C003, C104, C202, C203</t>
+          <t>C002, C101</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C002, C202, C203, C204</t>
+          <t>C004, C102</t>
         </is>
       </c>
     </row>
@@ -4883,7 +4883,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C102, C204, C205</t>
+          <t>C104, C203, C204</t>
         </is>
       </c>
     </row>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C004, C104, C205, C302</t>
+          <t>C202, C204, C205</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C001, C003, C102, C104, C302</t>
+          <t>C003, C102, C104, C204</t>
         </is>
       </c>
     </row>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L402]</t>
+          <t>CS161 (Lab) [L408]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L402]</t>
+          <t>CS161 (Lab) [L408]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -6883,7 +6883,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -6947,7 +6947,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -7455,7 +7455,7 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -7519,7 +7519,7 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -7811,17 +7811,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I18" t="b">
@@ -7839,7 +7839,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -7947,19 +7947,15 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="b">
         <v>0</v>
       </c>
@@ -7975,7 +7971,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -8015,12 +8011,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -8043,7 +8039,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -8111,7 +8107,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -8161,7 +8157,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -8179,7 +8175,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -8229,7 +8225,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -8247,7 +8243,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -8297,7 +8293,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -8315,7 +8311,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -8355,17 +8351,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -8383,7 +8379,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -8423,17 +8419,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -8451,7 +8447,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -8501,7 +8497,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I28" t="b">
@@ -8519,7 +8515,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -8615,15 +8611,19 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I30" t="b">
         <v>0</v>
       </c>
@@ -8639,7 +8639,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -8747,19 +8747,15 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="b">
         <v>0</v>
       </c>
@@ -8775,7 +8771,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -8815,12 +8811,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -8843,7 +8839,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -8911,7 +8907,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -8979,7 +8975,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -9029,7 +9025,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -9047,7 +9043,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -9097,7 +9093,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -9115,7 +9111,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -9155,17 +9151,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -9183,7 +9179,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -9233,7 +9229,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -9251,7 +9247,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -9301,7 +9297,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I40" t="b">
@@ -9319,7 +9315,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -9419,17 +9415,17 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I42" t="b">
@@ -9447,7 +9443,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -9555,19 +9551,15 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="b">
         <v>0</v>
       </c>
@@ -9583,7 +9575,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -9623,17 +9615,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -9651,7 +9643,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -9719,7 +9711,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -9787,7 +9779,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -9855,7 +9847,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -9905,7 +9897,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -9923,7 +9915,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -9963,17 +9955,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -9991,7 +9983,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -10059,7 +10051,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -10099,17 +10091,17 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I52" t="b">
@@ -10127,7 +10119,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -10375,7 +10367,7 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -10439,7 +10431,7 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -11317,7 +11309,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I71" t="b">
@@ -11335,7 +11327,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -11385,7 +11377,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I72" t="b">
@@ -11403,7 +11395,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -11443,19 +11435,15 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="b">
         <v>0</v>
       </c>
@@ -11471,7 +11459,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -11539,7 +11527,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -11589,7 +11577,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I75" t="b">
@@ -11607,7 +11595,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -11652,7 +11640,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -11675,7 +11663,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -11715,17 +11703,17 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I77" t="b">
@@ -11743,7 +11731,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -11793,7 +11781,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I78" t="b">
@@ -11811,7 +11799,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -11929,7 +11917,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I80" t="b">
@@ -11947,7 +11935,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -11992,10 +11980,14 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I81" t="b">
         <v>0</v>
       </c>
@@ -12011,7 +12003,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -12059,11 +12051,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="b">
         <v>0</v>
       </c>
@@ -12075,7 +12063,7 @@
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -12121,7 +12109,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I83" t="b">
@@ -12139,7 +12127,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -12179,17 +12167,17 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I84" t="b">
@@ -12207,7 +12195,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -12247,19 +12235,15 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="b">
         <v>0</v>
       </c>
@@ -12275,7 +12259,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -12343,7 +12327,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -12383,15 +12367,19 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I87" t="b">
         <v>0</v>
       </c>
@@ -12407,7 +12395,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -12447,12 +12435,12 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -12475,7 +12463,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -12515,17 +12503,17 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I89" t="b">
@@ -12543,7 +12531,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -12611,7 +12599,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -12679,7 +12667,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -12747,7 +12735,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -12879,7 +12867,7 @@
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -13003,7 +12991,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -13053,7 +13041,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I97" t="b">
@@ -13071,7 +13059,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -13111,19 +13099,15 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="b">
         <v>0</v>
       </c>
@@ -13139,7 +13123,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -13275,7 +13259,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -13320,7 +13304,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -13343,7 +13327,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -13383,17 +13367,17 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I102" t="b">
@@ -13411,7 +13395,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -13461,7 +13445,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I103" t="b">
@@ -13479,7 +13463,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -13597,7 +13581,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I105" t="b">
@@ -13615,7 +13599,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -13660,10 +13644,14 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I106" t="b">
         <v>0</v>
       </c>
@@ -13679,7 +13667,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">

--- a/backend/output_timetables/sem1_CSE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_CSE_post_mid_timetable.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C102]</t>
+          <t>CS161 [C001]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -534,12 +534,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C002]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C002]</t>
         </is>
       </c>
     </row>
@@ -551,27 +551,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C102]</t>
+          <t>CS161 [C004]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HS161 [C104]</t>
+          <t>HS161 [C204]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>MA162 [C002]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>DS161 [C001]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>DS161 [C004]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>DS161 [C001]</t>
         </is>
       </c>
     </row>
@@ -615,17 +615,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L403]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA162 [C002]</t>
+          <t>MA162 [C001]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C002]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L403]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS161 [C104]</t>
+          <t>HS161 [C204]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3254,11 +3254,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>HS157, HS156, CS151</t>
+          <t>HS157, HS156, HS152, CS151</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3354,7 +3354,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -3410,28 +3410,63 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>CS151</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Fri 14:30-15:30</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3515,16 +3550,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.25</v>
+        <v>22.5</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -3545,16 +3580,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>11.25</v>
+        <v>15</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -3579,16 +3614,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -3613,16 +3648,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>30</v>
+        <v>37.5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -3681,16 +3716,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -3749,16 +3784,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -3851,16 +3886,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -3919,16 +3954,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -3987,16 +4022,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -4021,16 +4056,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -4089,16 +4124,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -4511,16 +4546,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -4681,16 +4716,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -4709,7 +4744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4747,7 +4782,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C104, C203, C302</t>
+          <t>C001, C004</t>
         </is>
       </c>
     </row>
@@ -4764,7 +4799,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C004, C302</t>
+          <t>C002, C302</t>
         </is>
       </c>
     </row>
@@ -4776,12 +4811,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C003, C101, C202</t>
+          <t>C101, C303</t>
         </is>
       </c>
     </row>
@@ -4793,12 +4828,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C102, C203, C205</t>
+          <t>C102, L406</t>
         </is>
       </c>
     </row>
@@ -4810,12 +4845,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C002, C101, C104</t>
+          <t>C104, C304</t>
         </is>
       </c>
     </row>
@@ -4827,12 +4862,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C202, C305</t>
         </is>
       </c>
     </row>
@@ -4844,12 +4879,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C002, C101</t>
+          <t>C003, C203</t>
         </is>
       </c>
     </row>
@@ -4861,12 +4896,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C004, C102</t>
+          <t>C204, L402</t>
         </is>
       </c>
     </row>
@@ -4878,12 +4913,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C104, C203, C204</t>
+          <t>C205, L404</t>
         </is>
       </c>
     </row>
@@ -4895,29 +4930,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C202, C204, C205</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>C003, C102, C104, C204</t>
+          <t>L403, L405</t>
         </is>
       </c>
     </row>
@@ -5017,7 +5035,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C104]</t>
+          <t>CS161 [C004]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5044,17 +5062,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C104]</t>
+          <t>CS161 [C001]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HS161 [C202]</t>
+          <t>HS161 [C205]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -5064,7 +5082,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>DS161 [C002]</t>
+          <t>DS161 [C001]</t>
         </is>
       </c>
     </row>
@@ -5108,12 +5126,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L408]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA162 [C002]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -5140,7 +5158,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L408]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -5172,12 +5190,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS161 [C202]</t>
+          <t>HS161 [C205]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC161 [C001]</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -5381,17 +5399,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>introduction to cyber security</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>Manjunath</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -5411,12 +5429,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>L403, C102</t>
+          <t>C004, L207, C001</t>
         </is>
       </c>
     </row>
@@ -5463,7 +5481,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -5510,7 +5528,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C002, C003</t>
+          <t>C001, C002</t>
         </is>
       </c>
     </row>
@@ -5557,7 +5575,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C004, L105, C001</t>
+          <t>C001, L105, C002</t>
         </is>
       </c>
     </row>
@@ -5604,7 +5622,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -5668,12 +5686,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Complete: 3</t>
+          <t>Complete: 2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Rate: 42.9%</t>
+          <t>Rate: 28.6%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -5693,7 +5711,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[WARN] 4 issues</t>
+          <t>[WARN] 5 issues</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -5823,17 +5841,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>introduction to cyber security</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>Manjunath</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -5853,12 +5871,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C104, L406</t>
+          <t>C004, L207, C001</t>
         </is>
       </c>
     </row>
@@ -5905,7 +5923,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -5952,7 +5970,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C002, C003</t>
+          <t>C001, C002</t>
         </is>
       </c>
     </row>
@@ -5999,7 +6017,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C004, L206, C001</t>
+          <t>C001, L206, C002</t>
         </is>
       </c>
     </row>
@@ -6046,7 +6064,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -6093,7 +6111,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C002, C004</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -6110,12 +6128,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Complete: 3</t>
+          <t>Complete: 2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Rate: 42.9%</t>
+          <t>Rate: 28.6%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -6135,7 +6153,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[WARN] 4 issues</t>
+          <t>[WARN] 5 issues</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -6155,7 +6173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6227,7 +6245,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -6235,16 +6253,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>DS161, EC161</t>
+          <t>EC161, DS161, CS161...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>1.8</t>
         </is>
       </c>
     </row>
@@ -6270,117 +6288,117 @@
         </is>
       </c>
       <c r="E3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>3</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>A, B</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>MA162, DS161</t>
+          <t>EC161, MA162, MA161</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>1.6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>2</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>A, B</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>DS161, CS161</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>DS161, EC161, MA161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -6395,7 +6413,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6403,7 +6421,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -6411,7 +6429,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -6423,65 +6441,65 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CS161, HS161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6497,7 +6515,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -6509,12 +6527,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -6524,15 +6542,15 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -6540,141 +6558,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>CS161 (Lab)</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>CS161 (Lab)</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0.4</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -6689,7 +6578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:P93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6725,47 +6614,57 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Room Type</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Capacity</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Facilities</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Conflict</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Allocation Type</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Basket</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>room</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>course</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>session_type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>conflict</t>
         </is>
       </c>
     </row>
@@ -6795,42 +6694,50 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>CS161</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -6859,42 +6766,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>CS161 (Lab)</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Lab</t>
         </is>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -6923,42 +6838,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>CS161 (Lab)</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Lab</t>
         </is>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -6987,42 +6910,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>HS161</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -7051,42 +6982,46 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>CS161</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -7115,42 +7050,50 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>HS161</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -7179,42 +7122,46 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>MA162</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -7243,38 +7190,46 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
         <is>
           <t>C001</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>EC161</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -7303,42 +7258,50 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>MA162</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -7367,42 +7330,50 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>EC161</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -7431,42 +7402,50 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Hardware Lab</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>Equipment</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
         <is>
           <t>L105</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>EC161 (Lab)</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>Lab</t>
         </is>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -7495,42 +7474,50 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Hardware Lab</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>Equipment</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
         <is>
           <t>L105</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>EC161 (Lab)</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>Lab</t>
         </is>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -7559,42 +7546,50 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>MA161</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -7623,42 +7618,46 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
           <t>DS161</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -7687,42 +7686,50 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
           <t>MA161</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -7751,38 +7758,50 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>DS161</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -7811,46 +7830,54 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -7879,46 +7906,54 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -7947,42 +7982,54 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -8011,46 +8058,54 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M21" t="inlineStr">
         <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>CS151</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -8079,46 +8134,54 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -8147,46 +8210,54 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -8215,46 +8286,54 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -8283,46 +8362,54 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -8351,46 +8438,54 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -8419,46 +8514,54 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -8477,7 +8580,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -8487,46 +8590,54 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -8545,45 +8656,65 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -8611,46 +8742,54 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -8679,46 +8818,54 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -8747,42 +8894,54 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -8811,46 +8970,54 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -8879,46 +9046,54 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -8947,46 +9122,54 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M35" t="inlineStr">
         <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
           <t>HS102</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -9015,46 +9198,54 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
       <c r="M36" t="inlineStr">
         <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
           <t>HS103</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -9083,46 +9274,54 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
       <c r="M37" t="inlineStr">
         <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
           <t>DE101</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -9141,56 +9340,64 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Auditorium</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>240</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>Audio/Video System</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>C004</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -9209,56 +9416,64 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -9277,56 +9492,64 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -9345,7 +9568,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -9355,39 +9578,55 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr"/>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -9415,46 +9654,54 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
       <c r="M42" t="inlineStr">
         <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
           <t>PH151</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="O42" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -9483,46 +9730,54 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M43" t="inlineStr">
         <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
           <t>DS151</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="O43" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -9551,42 +9806,54 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M44" t="inlineStr">
         <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
           <t>CS101</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="O44" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -9615,46 +9882,54 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -9683,46 +9958,54 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -9751,46 +10034,54 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -9804,61 +10095,61 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="b">
+        <v>0</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Tutorial</t>
-        </is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -9872,61 +10163,65 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Tutorial</t>
-        </is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -9940,12 +10235,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -9955,46 +10250,50 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Tutorial</t>
-        </is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -10008,61 +10307,65 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Tutorial</t>
-        </is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -10076,61 +10379,65 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
           <t>CS161</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -10144,54 +10451,66 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>HS161</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -10204,54 +10523,66 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr"/>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -10269,52 +10600,60 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -10333,52 +10672,60 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Lab</t>
-        </is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -10397,52 +10744,60 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Lab</t>
-        </is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -10461,7 +10816,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -10471,42 +10826,50 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -10525,52 +10888,60 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -10589,52 +10960,60 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -10653,52 +11032,60 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -10717,48 +11104,60 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -10777,7 +11176,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -10787,42 +11186,46 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -10841,52 +11244,60 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr"/>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -10905,52 +11316,64 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J65" t="b">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Lab</t>
-        </is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -10969,52 +11392,64 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Lab</t>
-        </is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -11033,7 +11468,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -11043,42 +11478,54 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -11097,52 +11544,64 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J68" t="b">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -11161,7 +11620,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -11171,42 +11630,54 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J69" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -11225,52 +11696,64 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J70" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -11299,46 +11782,54 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr">
+      <c r="J71" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
+      <c r="L71" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -11367,46 +11858,54 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr">
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J72" t="b">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
+      <c r="L72" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -11435,42 +11934,54 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J73" t="b">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="L73" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -11489,7 +12000,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -11499,46 +12010,50 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="b">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr">
+      <c r="L74" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P74" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -11557,7 +12072,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -11567,46 +12082,54 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr">
+      <c r="J75" t="b">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr">
+      <c r="L75" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -11625,7 +12148,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -11635,46 +12158,54 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr">
+      <c r="J76" t="b">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
+      <c r="L76" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -11693,7 +12224,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -11703,46 +12234,54 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J77" t="b">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr">
+      <c r="L77" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -11761,7 +12300,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -11771,46 +12310,54 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr">
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J78" t="b">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr">
+      <c r="L78" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -11829,7 +12376,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -11839,46 +12386,54 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr">
+      <c r="J79" t="b">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="L79" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -11897,7 +12452,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -11907,46 +12462,54 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr">
+      <c r="J80" t="b">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
+      <c r="L80" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -11965,7 +12528,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -11975,46 +12538,54 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J81" t="b">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
+      <c r="L81" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -12033,45 +12604,65 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J82" t="b">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr"/>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -12099,46 +12690,54 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H83" t="inlineStr">
         <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr">
+      <c r="J83" t="b">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
+      <c r="L83" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P83" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -12157,56 +12756,60 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="b">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr">
+      <c r="L84" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P84" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -12225,52 +12828,64 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr">
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J85" t="b">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr">
+      <c r="L85" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P85" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -12289,56 +12904,64 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr">
+      <c r="J86" t="b">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr">
+      <c r="L86" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P86" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -12357,56 +12980,64 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr">
+      <c r="J87" t="b">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr">
+      <c r="L87" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P87" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -12425,56 +13056,64 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr">
+      <c r="J88" t="b">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr">
+      <c r="L88" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P88" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -12493,56 +13132,64 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J89" t="b">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
+      <c r="L89" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P89" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -12561,56 +13208,64 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr">
+      <c r="J90" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="L90" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="M90" t="inlineStr">
         <is>
           <t>C203</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P90" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -12629,56 +13284,64 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr">
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J91" t="b">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr">
+      <c r="L91" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P91" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -12697,56 +13360,64 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr">
+      <c r="J92" t="b">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr">
+      <c r="L92" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P92" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -12765,981 +13436,65 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J93" t="b">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr">
+      <c r="L93" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>1</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>1</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>1</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I96" t="b">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
       </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>1</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>1</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>1</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I99" t="b">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>1</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>1</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>1</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I102" t="b">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>1</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I103" t="b">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>1</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I104" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>1</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I105" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>1</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I106" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>1</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I107" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="P93" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13825,17 +13580,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>introduction to cyber security</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2/0/0</t>
+          <t>3/0/2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -13850,27 +13605,27 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>[OK]</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>[OK]</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[OK] FULLY COMPLIANT</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Meets requirements</t>
+          <t>Check scheduling</t>
         </is>
       </c>
     </row>
@@ -14290,7 +14045,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-19 23:36</t>
+          <t>2026-01-26 01:05</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -14315,7 +14070,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Core: 5, Elective: 2</t>
+          <t>Core: 6, Elective: 1</t>
         </is>
       </c>
     </row>
@@ -14332,12 +14087,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>42.9%</t>
+          <t>28.6%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3/7 courses fully compliant</t>
+          <t>2/7 courses fully compliant</t>
         </is>
       </c>
     </row>
@@ -14354,12 +14109,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11/36</t>
+          <t>8/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 30.6%</t>
+          <t>Utilization: 22.2%</t>
         </is>
       </c>
     </row>
@@ -14403,7 +14158,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 53.8/100</t>
+          <t>Score: 48.1/100</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_CSE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_CSE_post_mid_timetable.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C001]</t>
+          <t>CS161 [C104]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -534,12 +534,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA161 [C002]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA161 [C002]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>CS161 [C205]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -561,17 +561,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA162 [C002]</t>
+          <t>MA162 [C101]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>DS161 [C001]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -615,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC161 [C002]</t>
+          <t>EC161 [C101]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC161 [C001]</t>
+          <t>EC161 [C104]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -907,7 +907,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -955,7 +955,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2001,7 +2001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2640,16 +2640,16 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -2661,43 +2661,43 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Pre-Mid</t>
+          <t>Post-Mid</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Any</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Chinmayananda</t>
+          <t>Sunil P V, Sunil C K, Animesh Roy</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>English Language</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -2709,43 +2709,43 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Pre-Mid</t>
+          <t>Post-Mid</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Any</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Prakash Pawar</t>
+          <t>Rajesh N S</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Problem Solving</t>
+          <t>Computational musicology for hindustani music</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -2777,23 +2777,23 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Sunil P V, Sunil C K, Animesh Roy</t>
+          <t>Chandrika Kamat</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>English Language</t>
+          <t>Holistic Personality Development</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -2832,16 +2832,16 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Computational musicology for hindustani music</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -2858,12 +2858,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Any</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2873,23 +2873,23 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Chandrika Kamat</t>
+          <t>Chinmayananda</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Holistic Personality Development</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -2906,12 +2906,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Any</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2921,19 +2921,19 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Rajesh N S</t>
+          <t>Prakash Pawar</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>introduction to cyber security</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2968,198 +2968,6 @@
         </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>Chinmayananda</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Digital Design</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Post-Mid</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Prakash Pawar</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>introduction to cyber security</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>2</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Post-Mid</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Girish Revadigar</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Statistics</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>2</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Post-Mid</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Ramesh Athe</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Introduction to DS and AI</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>2</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Post-Mid</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
         <is>
           <t>Girish Revadigar</t>
         </is>
@@ -3550,16 +3358,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="E2" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>22.5</v>
+        <v>3.75</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -3580,16 +3388,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -3614,16 +3422,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -3648,16 +3456,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -3682,16 +3490,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -3784,16 +3592,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -3852,16 +3660,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -3988,16 +3796,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -4056,16 +3864,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7.5</v>
+        <v>11.25</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -4124,16 +3932,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -4192,16 +4000,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -4260,16 +4068,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -4782,7 +4590,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C001, C004</t>
+          <t>C004, C302</t>
         </is>
       </c>
     </row>
@@ -4799,7 +4607,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C002, C302</t>
+          <t>C001, C303</t>
         </is>
       </c>
     </row>
@@ -4816,7 +4624,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C101, C303</t>
+          <t>C002, C304</t>
         </is>
       </c>
     </row>
@@ -4833,7 +4641,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C102, L406</t>
+          <t>C101, L406</t>
         </is>
       </c>
     </row>
@@ -4850,7 +4658,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C104, C304</t>
+          <t>C102, C305</t>
         </is>
       </c>
     </row>
@@ -4867,7 +4675,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C202, C305</t>
+          <t>C003, C104</t>
         </is>
       </c>
     </row>
@@ -4884,7 +4692,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C003, C203</t>
+          <t>C202, L402</t>
         </is>
       </c>
     </row>
@@ -4901,7 +4709,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C204, L402</t>
+          <t>C203, L403</t>
         </is>
       </c>
     </row>
@@ -4918,7 +4726,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C205, L404</t>
+          <t>C204, L404</t>
         </is>
       </c>
     </row>
@@ -4935,7 +4743,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>L403, L405</t>
+          <t>C205, L405</t>
         </is>
       </c>
     </row>
@@ -5035,7 +4843,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>CS161 [C203]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5045,12 +4853,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -5062,7 +4870,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C001]</t>
+          <t>CS161 [C302]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -5072,17 +4880,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>DS161 [C001]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -5126,17 +4934,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -5158,7 +4966,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -5195,7 +5003,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -5289,7 +5097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5404,7 +5212,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Manjunath</t>
+          <t>Sunil P V, Sunil C K, Animesh Roy</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5434,7 +5242,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C004, L207, C001</t>
+          <t>C205, C104, L107</t>
         </is>
       </c>
     </row>
@@ -5528,7 +5336,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C001, C002</t>
+          <t>C001, C101</t>
         </is>
       </c>
     </row>
@@ -5575,146 +5383,52 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C001, L105, C002</t>
+          <t>L105, C104, C101</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**MA161**</t>
+          <t>**SUMMARY**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Total Courses: 5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>Complete: 1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>Rate: 20.0%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>Lectures: 10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Labs: 4</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>--</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>[WARN] 4 issues</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>**DS161**</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Introduction to DATA science and artificial intelligence</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Girish Revadigar</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>C001, C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>**SUMMARY**</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Total Courses: 7</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Complete: 2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Rate: 28.6%</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Lectures: 14</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Labs: 4</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>[WARN] 5 issues</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -5731,7 +5445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5846,7 +5560,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Manjunath</t>
+          <t>Sunil P V, Sunil C K, Animesh Roy</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5876,7 +5590,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C004, L207, C001</t>
+          <t>C302, C203, L107</t>
         </is>
       </c>
     </row>
@@ -5970,7 +5684,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C001, C002</t>
+          <t>C001, C101</t>
         </is>
       </c>
     </row>
@@ -6017,146 +5731,52 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C001, L206, C002</t>
+          <t>C104, L206, C101</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**MA161**</t>
+          <t>**SUMMARY**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Total Courses: 5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>Complete: 1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>Rate: 20.0%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>Lectures: 10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Labs: 4</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>--</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>[WARN] 4 issues</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>**DS161**</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Introduction to DATA science and artificial intelligence</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Girish Revadigar</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>**SUMMARY**</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Total Courses: 7</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Complete: 2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Rate: 28.6%</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Lectures: 14</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Labs: 4</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>[WARN] 5 issues</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -6173,7 +5793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6245,7 +5865,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -6253,33 +5873,33 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>EC161, DS161, CS161...</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -6288,7 +5908,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -6296,38 +5916,38 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>EC161, MA162, MA161</t>
+          <t>EC161, MA162</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6343,7 +5963,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>DS161, CS161</t>
+          <t>EC161, CS161</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -6355,7 +5975,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -6374,11 +5994,11 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -6386,19 +6006,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -6421,7 +6041,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -6441,69 +6061,69 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>2</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS161, CS161</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -6515,55 +6135,141 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>Software Lab</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Computers</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="E10" t="n">
         <v>4</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>A, B</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>CS161 (Lab)</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -6578,7 +6284,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P93"/>
+  <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6699,17 +6405,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -6723,7 +6429,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -6795,7 +6501,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -6867,7 +6573,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -6987,15 +6693,19 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
@@ -7007,7 +6717,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -7195,15 +6905,19 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
@@ -7215,7 +6929,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -7263,12 +6977,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -7287,7 +7001,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -7335,12 +7049,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -7359,7 +7073,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -7536,7 +7250,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -7546,17 +7260,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -7569,18 +7283,22 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -7608,47 +7326,55 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -7676,7 +7402,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -7686,22 +7412,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -7709,18 +7435,22 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -7748,32 +7478,32 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -7781,18 +7511,22 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -7830,22 +7564,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -7863,12 +7597,12 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -7906,17 +7640,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -7939,12 +7673,12 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -7982,7 +7716,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -7992,7 +7726,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -8015,12 +7749,12 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -8058,7 +7792,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -8091,12 +7825,12 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -8134,7 +7868,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -8144,7 +7878,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -8167,12 +7901,12 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -8210,7 +7944,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -8220,7 +7954,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -8243,12 +7977,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -8276,7 +8010,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -8286,17 +8020,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -8319,12 +8053,12 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -8352,7 +8086,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -8362,7 +8096,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -8372,7 +8106,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -8395,12 +8129,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -8428,7 +8162,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -8438,7 +8172,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -8448,7 +8182,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -8471,12 +8205,12 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -8504,7 +8238,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -8514,7 +8248,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -8547,12 +8281,12 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -8590,22 +8324,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -8623,12 +8357,12 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -8666,17 +8400,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -8699,12 +8433,12 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -8742,7 +8476,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -8752,7 +8486,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -8775,12 +8509,12 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -8818,7 +8552,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -8851,12 +8585,12 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -8894,7 +8628,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -8904,7 +8638,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -8927,12 +8661,12 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -8970,7 +8704,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -8980,7 +8714,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -9003,12 +8737,12 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -9036,27 +8770,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -9079,17 +8813,17 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P34" t="b">
@@ -9112,17 +8846,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -9132,7 +8866,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -9155,17 +8889,17 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P35" t="b">
@@ -9188,17 +8922,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -9208,7 +8942,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -9231,17 +8965,17 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P36" t="b">
@@ -9264,17 +8998,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -9307,17 +9041,17 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P37" t="b">
@@ -9350,22 +9084,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -9383,12 +9117,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -9426,17 +9160,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -9459,12 +9193,12 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -9502,7 +9236,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -9512,7 +9246,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -9535,12 +9269,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -9578,7 +9312,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -9611,12 +9345,12 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -9654,7 +9388,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -9664,7 +9398,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -9687,12 +9421,12 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -9730,7 +9464,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -9740,7 +9474,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -9763,12 +9497,12 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -9791,32 +9525,32 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -9829,27 +9563,23 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P44" t="b">
@@ -9867,37 +9597,37 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -9905,27 +9635,23 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P45" t="b">
@@ -9943,12 +9669,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -9958,22 +9684,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -9981,27 +9707,23 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P46" t="b">
@@ -10019,22 +9741,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -10044,7 +9766,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -10057,27 +9779,23 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P47" t="b">
@@ -10100,12 +9818,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -10115,15 +9833,19 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J48" t="b">
         <v>0</v>
       </c>
@@ -10135,7 +9857,7 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -10168,32 +9890,32 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -10207,17 +9929,17 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P49" t="b">
@@ -10240,32 +9962,32 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -10279,17 +10001,17 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P50" t="b">
@@ -10312,7 +10034,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -10322,22 +10044,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -10351,12 +10073,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -10384,32 +10106,32 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J52" t="b">
@@ -10423,12 +10145,12 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -10456,32 +10178,32 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -10495,12 +10217,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -10528,32 +10250,32 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -10567,17 +10289,17 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P54" t="b">
@@ -10600,32 +10322,32 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -10639,17 +10361,17 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P55" t="b">
@@ -10672,17 +10394,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -10705,10 +10427,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr">
         <is>
           <t>C004</t>
@@ -10716,7 +10442,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -10744,51 +10470,51 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="b">
         <v>0</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -10816,32 +10542,32 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J58" t="b">
@@ -10849,23 +10575,27 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P58" t="b">
@@ -10888,32 +10618,32 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J59" t="b">
@@ -10921,23 +10651,27 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P59" t="b">
@@ -10960,7 +10694,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -10970,22 +10704,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -10993,18 +10727,22 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -11032,32 +10770,32 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J61" t="b">
@@ -11065,18 +10803,22 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -11104,7 +10846,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -11114,22 +10856,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J62" t="b">
@@ -11137,18 +10879,22 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -11176,47 +10922,55 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J63" t="b">
         <v>0</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -11254,20 +11008,24 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J64" t="b">
         <v>0</v>
       </c>
@@ -11283,12 +11041,12 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -11326,22 +11084,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -11359,12 +11117,12 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -11392,7 +11150,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -11402,22 +11160,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -11435,12 +11193,12 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -11468,7 +11226,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -11478,24 +11236,20 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="b">
         <v>0</v>
       </c>
@@ -11511,12 +11265,12 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -11544,7 +11298,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -11554,17 +11308,17 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -11587,12 +11341,12 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -11620,7 +11374,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -11630,7 +11384,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -11663,12 +11417,12 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -11696,7 +11450,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -11706,7 +11460,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -11721,7 +11475,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J70" t="b">
@@ -11739,12 +11493,12 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -11772,7 +11526,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -11782,7 +11536,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -11797,7 +11551,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J71" t="b">
@@ -11815,12 +11569,12 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -11848,7 +11602,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -11858,7 +11612,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -11873,7 +11627,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J72" t="b">
@@ -11891,12 +11645,12 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -11924,7 +11678,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -11934,7 +11688,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -11944,7 +11698,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -11967,12 +11721,12 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -12010,20 +11764,24 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J74" t="b">
         <v>0</v>
       </c>
@@ -12039,12 +11797,12 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -12082,22 +11840,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J75" t="b">
@@ -12115,12 +11873,12 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -12148,32 +11906,32 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -12191,17 +11949,17 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P76" t="b">
@@ -12224,34 +11982,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="b">
         <v>0</v>
       </c>
@@ -12267,17 +12021,17 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P77" t="b">
@@ -12300,27 +12054,27 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -12343,17 +12097,17 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P78" t="b">
@@ -12376,17 +12130,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -12419,17 +12173,17 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P79" t="b">
@@ -12452,17 +12206,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -12477,7 +12231,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J80" t="b">
@@ -12495,17 +12249,17 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P80" t="b">
@@ -12528,17 +12282,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -12553,7 +12307,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J81" t="b">
@@ -12571,17 +12325,17 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P81" t="b">
@@ -12604,17 +12358,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -12629,7 +12383,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J82" t="b">
@@ -12647,17 +12401,17 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P82" t="b">
@@ -12680,17 +12434,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -12700,7 +12454,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -12723,17 +12477,17 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P83" t="b">
@@ -12766,20 +12520,24 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J84" t="b">
         <v>0</v>
       </c>
@@ -12795,12 +12553,12 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -12838,22 +12596,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J85" t="b">
@@ -12871,12 +12629,12 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -12885,614 +12643,6 @@
         </is>
       </c>
       <c r="P85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>1</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J86" t="b">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>1</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J87" t="b">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>1</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J88" t="b">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>1</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J89" t="b">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>1</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J90" t="b">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>1</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J91" t="b">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>1</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J92" t="b">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>1</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J93" t="b">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P93" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13507,7 +12657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13632,89 +12782,89 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Introduction to DATA science and artificial intelligence</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2/0/0</t>
+          <t>3/0/2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2/0/0</t>
+          <t>2/0/2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2/0/0</t>
+          <t>2/0/2</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>[OK]</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>[OK]</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[OK] FULLY COMPLIANT</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Meets requirements</t>
+          <t>Check scheduling</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3/0/2</t>
+          <t>3/0/0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2/0/2</t>
+          <t>2/1/0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2/0/2</t>
+          <t>2/1/0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -13746,12 +12896,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>English Language</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -13766,12 +12916,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2/1/0</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2/1/0</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -13803,22 +12953,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>English Language</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3/0/0</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -13833,7 +12983,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[FAIL]</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -13848,124 +12998,10 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[WARN] PARTIAL</t>
+          <t>[OK] FULLY COMPLIANT</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
-        <is>
-          <t>Check scheduling</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Statistics</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3-0-2-0-2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3/0/2</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2/0/0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2/0/0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>[WARN] PARTIAL</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Check scheduling</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Probability</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2/0/0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2/0/0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2/0/0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>[OK] FULLY COMPLIANT</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>Meets requirements</t>
         </is>
@@ -14045,7 +13081,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 01:05</t>
+          <t>2026-01-26 12:46</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -14066,11 +13102,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Core: 6, Elective: 1</t>
+          <t>Core: 4, Elective: 1</t>
         </is>
       </c>
     </row>
@@ -14087,12 +13123,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>28.6%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2/7 courses fully compliant</t>
+          <t>1/5 courses fully compliant</t>
         </is>
       </c>
     </row>
@@ -14109,12 +13145,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8/36</t>
+          <t>10/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 22.2%</t>
+          <t>Utilization: 27.8%</t>
         </is>
       </c>
     </row>
@@ -14131,12 +13167,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>42.2%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 42.2%, B: 42.2%</t>
+          <t>A: 33.3%, B: 33.3%</t>
         </is>
       </c>
     </row>
@@ -14158,7 +13194,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 48.1/100</t>
+          <t>Score: 42.0/100</t>
         </is>
       </c>
     </row>
@@ -14173,7 +13209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14767,150 +13803,6 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Post-Mid</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Statistics</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Ramesh Athe</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Post-Mid</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Introduction to DS and AI</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Girish Revadigar</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/output_timetables/sem1_CSE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_CSE_post_mid_timetable.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C104]</t>
+          <t>CS161 [C204]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C205]</t>
+          <t>CS161 [C204]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA162 [C101]</t>
+          <t>MA162 [C001]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC161 [C101]</t>
+          <t>EC161 [C001]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC161 [C104]</t>
+          <t>EC161 [C001]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3358,16 +3358,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75</v>
+        <v>15</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -3490,16 +3490,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -3592,16 +3592,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -3796,16 +3796,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -3830,16 +3830,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -3864,16 +3864,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>11.25</v>
+        <v>15</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -4000,16 +4000,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -4068,16 +4068,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C302</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C001, C303</t>
+          <t>C303</t>
         </is>
       </c>
     </row>
@@ -4624,7 +4624,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002, C304</t>
+          <t>C304</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C101, L406</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -4658,7 +4658,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C102, C305</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C003, C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -4692,7 +4692,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C202, L402</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -4709,7 +4709,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C203, L403</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -4726,7 +4726,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C204, L404</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -4743,7 +4743,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C205, L405</t>
+          <t>C302</t>
         </is>
       </c>
     </row>
@@ -4843,7 +4843,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C203]</t>
+          <t>CS161 [C205]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C302]</t>
+          <t>CS161 [C205]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -4934,7 +4934,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4966,7 +4966,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -5242,7 +5242,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C205, C104, L107</t>
+          <t>C204, L106</t>
         </is>
       </c>
     </row>
@@ -5336,7 +5336,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C001, C101</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -5383,7 +5383,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>L105, C104, C101</t>
+          <t>L105, C001</t>
         </is>
       </c>
     </row>
@@ -5590,7 +5590,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C302, C203, L107</t>
+          <t>C205, L106</t>
         </is>
       </c>
     </row>
@@ -5684,7 +5684,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C001, C101</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C104, L206, C101</t>
+          <t>L206, C001</t>
         </is>
       </c>
     </row>
@@ -5793,7 +5793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5865,31 +5865,31 @@
         </is>
       </c>
       <c r="E2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>2</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>A, B</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161, MA162</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -5904,7 +5904,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -5912,7 +5912,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -5920,7 +5920,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>EC161, MA162</t>
+          <t>CS161, HS161</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -5932,7 +5932,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -5947,15 +5947,15 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -5963,42 +5963,42 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>EC161, CS161</t>
+          <t>CS161, HS161</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -6006,42 +6006,42 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -6049,225 +6049,53 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>HS161, CS161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>L107</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>4</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>A, B</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>CS161 (Lab)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
         <is>
           <t>0.4</t>
         </is>
@@ -6429,7 +6257,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -6501,7 +6329,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -6573,7 +6401,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -6703,7 +6531,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -6717,7 +6545,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -6905,19 +6733,15 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="b">
         <v>0</v>
       </c>
@@ -6929,7 +6753,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -6977,19 +6801,15 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="b">
         <v>0</v>
       </c>
@@ -7001,7 +6821,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -7049,19 +6869,15 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="b">
         <v>0</v>
       </c>
@@ -7073,7 +6889,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -7275,7 +7091,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -7293,7 +7109,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -7498,12 +7314,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -7521,7 +7337,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -7579,7 +7395,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -7597,7 +7413,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -7645,12 +7461,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -7673,7 +7489,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -7726,12 +7542,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -7749,7 +7565,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -7802,7 +7618,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -7825,7 +7641,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -7878,7 +7694,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -7901,7 +7717,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -7954,12 +7770,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -7977,7 +7793,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -8035,7 +7851,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -8053,7 +7869,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -8258,12 +8074,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -8281,7 +8097,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -8339,7 +8155,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -8357,7 +8173,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -8405,12 +8221,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -8433,7 +8249,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -8486,12 +8302,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -8509,7 +8325,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -8562,7 +8378,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -8585,7 +8401,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -8638,7 +8454,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -8661,7 +8477,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -8714,12 +8530,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -8737,7 +8553,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -8795,7 +8611,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -8813,7 +8629,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -9018,12 +8834,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -9041,7 +8857,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -9099,7 +8915,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -9117,7 +8933,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -9165,12 +8981,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -9193,7 +9009,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -9246,12 +9062,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -9269,7 +9085,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -9322,7 +9138,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -9345,7 +9161,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -9398,7 +9214,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -9421,7 +9237,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -9474,12 +9290,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -9497,7 +9313,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -9555,7 +9371,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -9569,7 +9385,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -9641,7 +9457,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -9713,7 +9529,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -9857,7 +9673,7 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -10409,17 +10225,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J56" t="b">
@@ -10437,7 +10253,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -10485,15 +10301,19 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J57" t="b">
         <v>0</v>
       </c>
@@ -10509,7 +10329,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -10557,17 +10377,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J58" t="b">
@@ -10585,7 +10405,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -10661,7 +10481,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -10737,7 +10557,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -10813,7 +10633,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -10889,7 +10709,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -10965,7 +10785,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -11041,7 +10861,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -11099,7 +10919,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -11117,7 +10937,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -11165,17 +10985,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -11193,7 +11013,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -11241,15 +11061,19 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J67" t="b">
         <v>0</v>
       </c>
@@ -11265,7 +11089,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -11313,17 +11137,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J68" t="b">
@@ -11341,7 +11165,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -11417,7 +11241,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -11493,7 +11317,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -11569,7 +11393,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -11645,7 +11469,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -11721,7 +11545,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -11797,7 +11621,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -11855,7 +11679,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J75" t="b">
@@ -11873,7 +11697,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -11921,17 +11745,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -11949,7 +11773,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -11997,15 +11821,19 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J77" t="b">
         <v>0</v>
       </c>
@@ -12021,7 +11849,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -12069,17 +11897,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J78" t="b">
@@ -12097,7 +11925,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -12173,7 +12001,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -12249,7 +12077,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -12325,7 +12153,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -12401,7 +12229,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -12477,7 +12305,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -12553,7 +12381,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -12611,7 +12439,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J85" t="b">
@@ -12629,7 +12457,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -13081,7 +12909,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 12:46</t>
+          <t>2026-01-26 21:32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -13145,12 +12973,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10/36</t>
+          <t>6/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 27.8%</t>
+          <t>Utilization: 16.7%</t>
         </is>
       </c>
     </row>
